--- a/database/imports/permissions.xlsx
+++ b/database/imports/permissions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Elon\Codes\php\dboem\dboemlaravel\htdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1F842308-5B0B-4DF0-AD46-48F1904ABA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC995ADD-221B-45B7-953F-2A03D01B64EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="1230" windowWidth="18345" windowHeight="13695" activeTab="1"/>
+    <workbookView xWindow="690" yWindow="1185" windowWidth="18345" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,29 @@
   </si>
   <si>
     <t>匯出商品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_Hans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览商品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇出商品</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1066,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1151,11 +1167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1197,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1214,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1231,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1248,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1265,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1282,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1299,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1316,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1333,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1350,7 +1366,92 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/database/imports/permissions.xlsx
+++ b/database/imports/permissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Elon\Codes\php\dboem\dboemlaravel\htdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC995ADD-221B-45B7-953F-2A03D01B64EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D24DFA-AE5A-4313-AF8B-7A0381AFBB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1185" windowWidth="18345" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="94">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>product-add</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>product-delete</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>product-edit</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>product-download</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>permission_id</t>
@@ -66,18 +50,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>product-view</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Product</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit Product</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>en</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -90,48 +62,274 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>View Product</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Export Product</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀏覽商品</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增商品</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除商品</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>匯出商品</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>zh_Hans</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>浏览商品</t>
+    <t>trans_name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>删除商品</t>
+    <t>role-view</t>
+  </si>
+  <si>
+    <t>role-add</t>
+  </si>
+  <si>
+    <t>role-delete</t>
+  </si>
+  <si>
+    <t>role-edit</t>
+  </si>
+  <si>
+    <t>role-download</t>
+  </si>
+  <si>
+    <t>web</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>汇出商品</t>
+    <t>user-view</t>
+  </si>
+  <si>
+    <t>user-add</t>
+  </si>
+  <si>
+    <t>user-delete</t>
+  </si>
+  <si>
+    <t>user-edit</t>
+  </si>
+  <si>
+    <t>user-download</t>
+  </si>
+  <si>
+    <t>permission-view</t>
+  </si>
+  <si>
+    <t>permission-add</t>
+  </si>
+  <si>
+    <t>permission-delete</t>
+  </si>
+  <si>
+    <t>permission-edit</t>
+  </si>
+  <si>
+    <t>permission-download</t>
+  </si>
+  <si>
+    <t>post-view</t>
+  </si>
+  <si>
+    <t>post-add</t>
+  </si>
+  <si>
+    <t>post-delete</t>
+  </si>
+  <si>
+    <t>post-edit</t>
+  </si>
+  <si>
+    <t>post-download</t>
+  </si>
+  <si>
+    <t>View User</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>View Role</t>
+  </si>
+  <si>
+    <t>Add Role</t>
+  </si>
+  <si>
+    <t>Delete Role</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
+  </si>
+  <si>
+    <t>Download Role</t>
+  </si>
+  <si>
+    <t>View Permission</t>
+  </si>
+  <si>
+    <t>Add Permission</t>
+  </si>
+  <si>
+    <t>Delete Permission</t>
+  </si>
+  <si>
+    <t>Edit Permission</t>
+  </si>
+  <si>
+    <t>Download Permission</t>
+  </si>
+  <si>
+    <t>View Post</t>
+  </si>
+  <si>
+    <t>Add Post</t>
+  </si>
+  <si>
+    <t>Delete Post</t>
+  </si>
+  <si>
+    <t>Edit Post</t>
+  </si>
+  <si>
+    <t>Download Post</t>
+  </si>
+  <si>
+    <t>Add User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽角色</t>
+  </si>
+  <si>
+    <t>新增角色</t>
+  </si>
+  <si>
+    <t>刪除角色</t>
+  </si>
+  <si>
+    <t>修改角色</t>
+  </si>
+  <si>
+    <t>下載角色</t>
+  </si>
+  <si>
+    <t>瀏覽權限</t>
+  </si>
+  <si>
+    <t>新增權限</t>
+  </si>
+  <si>
+    <t>刪除權限</t>
+  </si>
+  <si>
+    <t>修改權限</t>
+  </si>
+  <si>
+    <t>下載權限</t>
+  </si>
+  <si>
+    <t>瀏覽文章</t>
+  </si>
+  <si>
+    <t>新增文章</t>
+  </si>
+  <si>
+    <t>刪除文章</t>
+  </si>
+  <si>
+    <t>修改文章</t>
+  </si>
+  <si>
+    <t>下載文章</t>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_Hans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览使用者</t>
+  </si>
+  <si>
+    <t>新增使用者</t>
+  </si>
+  <si>
+    <t>删除使用者</t>
+  </si>
+  <si>
+    <t>修改使用者</t>
+  </si>
+  <si>
+    <t>下载使用者</t>
+  </si>
+  <si>
+    <t>浏览角色</t>
+  </si>
+  <si>
+    <t>删除角色</t>
+  </si>
+  <si>
+    <t>下载角色</t>
+  </si>
+  <si>
+    <t>浏览权限</t>
+  </si>
+  <si>
+    <t>新增权限</t>
+  </si>
+  <si>
+    <t>删除权限</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+  </si>
+  <si>
+    <t>下载权限</t>
+  </si>
+  <si>
+    <t>浏览文章</t>
+  </si>
+  <si>
+    <t>删除文章</t>
+  </si>
+  <si>
+    <t>下载文章</t>
   </si>
 </sst>
 </file>
@@ -724,9 +922,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1083,15 +1284,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,10 +1324,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,10 +1346,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1154,10 +1357,175 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1168,293 +1536,1157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="F27:F31"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/imports/permissions.xlsx
+++ b/database/imports/permissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Elon\Codes\php\dboem\dboemlaravel\htdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D24DFA-AE5A-4313-AF8B-7A0381AFBB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD607F4E-2187-4DC1-BBF5-3DDBC18F05CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,247 +89,248 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>user-add</t>
+  </si>
+  <si>
+    <t>user-delete</t>
+  </si>
+  <si>
+    <t>user-edit</t>
+  </si>
+  <si>
+    <t>user-download</t>
+  </si>
+  <si>
+    <t>permission-view</t>
+  </si>
+  <si>
+    <t>permission-add</t>
+  </si>
+  <si>
+    <t>permission-delete</t>
+  </si>
+  <si>
+    <t>permission-edit</t>
+  </si>
+  <si>
+    <t>permission-download</t>
+  </si>
+  <si>
+    <t>post-view</t>
+  </si>
+  <si>
+    <t>post-add</t>
+  </si>
+  <si>
+    <t>post-delete</t>
+  </si>
+  <si>
+    <t>post-edit</t>
+  </si>
+  <si>
+    <t>post-download</t>
+  </si>
+  <si>
+    <t>View User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>View Role</t>
+  </si>
+  <si>
+    <t>Add Role</t>
+  </si>
+  <si>
+    <t>Delete Role</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
+  </si>
+  <si>
+    <t>Download Role</t>
+  </si>
+  <si>
+    <t>View Permission</t>
+  </si>
+  <si>
+    <t>Add Permission</t>
+  </si>
+  <si>
+    <t>Delete Permission</t>
+  </si>
+  <si>
+    <t>Edit Permission</t>
+  </si>
+  <si>
+    <t>Download Permission</t>
+  </si>
+  <si>
+    <t>View Post</t>
+  </si>
+  <si>
+    <t>Add Post</t>
+  </si>
+  <si>
+    <t>Delete Post</t>
+  </si>
+  <si>
+    <t>Edit Post</t>
+  </si>
+  <si>
+    <t>Download Post</t>
+  </si>
+  <si>
+    <t>Add User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download User</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽角色</t>
+  </si>
+  <si>
+    <t>新增角色</t>
+  </si>
+  <si>
+    <t>刪除角色</t>
+  </si>
+  <si>
+    <t>修改角色</t>
+  </si>
+  <si>
+    <t>下載角色</t>
+  </si>
+  <si>
+    <t>瀏覽權限</t>
+  </si>
+  <si>
+    <t>新增權限</t>
+  </si>
+  <si>
+    <t>刪除權限</t>
+  </si>
+  <si>
+    <t>修改權限</t>
+  </si>
+  <si>
+    <t>下載權限</t>
+  </si>
+  <si>
+    <t>瀏覽文章</t>
+  </si>
+  <si>
+    <t>新增文章</t>
+  </si>
+  <si>
+    <t>刪除文章</t>
+  </si>
+  <si>
+    <t>修改文章</t>
+  </si>
+  <si>
+    <t>下載文章</t>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_Hans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览使用者</t>
+  </si>
+  <si>
+    <t>新增使用者</t>
+  </si>
+  <si>
+    <t>删除使用者</t>
+  </si>
+  <si>
+    <t>修改使用者</t>
+  </si>
+  <si>
+    <t>下载使用者</t>
+  </si>
+  <si>
+    <t>浏览角色</t>
+  </si>
+  <si>
+    <t>删除角色</t>
+  </si>
+  <si>
+    <t>下载角色</t>
+  </si>
+  <si>
+    <t>浏览权限</t>
+  </si>
+  <si>
+    <t>新增权限</t>
+  </si>
+  <si>
+    <t>删除权限</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+  </si>
+  <si>
+    <t>下载权限</t>
+  </si>
+  <si>
+    <t>浏览文章</t>
+  </si>
+  <si>
+    <t>删除文章</t>
+  </si>
+  <si>
+    <t>下载文章</t>
+  </si>
+  <si>
     <t>user-view</t>
-  </si>
-  <si>
-    <t>user-add</t>
-  </si>
-  <si>
-    <t>user-delete</t>
-  </si>
-  <si>
-    <t>user-edit</t>
-  </si>
-  <si>
-    <t>user-download</t>
-  </si>
-  <si>
-    <t>permission-view</t>
-  </si>
-  <si>
-    <t>permission-add</t>
-  </si>
-  <si>
-    <t>permission-delete</t>
-  </si>
-  <si>
-    <t>permission-edit</t>
-  </si>
-  <si>
-    <t>permission-download</t>
-  </si>
-  <si>
-    <t>post-view</t>
-  </si>
-  <si>
-    <t>post-add</t>
-  </si>
-  <si>
-    <t>post-delete</t>
-  </si>
-  <si>
-    <t>post-edit</t>
-  </si>
-  <si>
-    <t>post-download</t>
-  </si>
-  <si>
-    <t>View User</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>View Role</t>
-  </si>
-  <si>
-    <t>Add Role</t>
-  </si>
-  <si>
-    <t>Delete Role</t>
-  </si>
-  <si>
-    <t>Edit Role</t>
-  </si>
-  <si>
-    <t>Download Role</t>
-  </si>
-  <si>
-    <t>View Permission</t>
-  </si>
-  <si>
-    <t>Add Permission</t>
-  </si>
-  <si>
-    <t>Delete Permission</t>
-  </si>
-  <si>
-    <t>Edit Permission</t>
-  </si>
-  <si>
-    <t>Download Permission</t>
-  </si>
-  <si>
-    <t>View Post</t>
-  </si>
-  <si>
-    <t>Add Post</t>
-  </si>
-  <si>
-    <t>Delete Post</t>
-  </si>
-  <si>
-    <t>Edit Post</t>
-  </si>
-  <si>
-    <t>Download Post</t>
-  </si>
-  <si>
-    <t>Add User</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete User</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit User</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download User</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀏覽使用者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增使用者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除使用者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改使用者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下載使用者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀏覽角色</t>
-  </si>
-  <si>
-    <t>新增角色</t>
-  </si>
-  <si>
-    <t>刪除角色</t>
-  </si>
-  <si>
-    <t>修改角色</t>
-  </si>
-  <si>
-    <t>下載角色</t>
-  </si>
-  <si>
-    <t>瀏覽權限</t>
-  </si>
-  <si>
-    <t>新增權限</t>
-  </si>
-  <si>
-    <t>刪除權限</t>
-  </si>
-  <si>
-    <t>修改權限</t>
-  </si>
-  <si>
-    <t>下載權限</t>
-  </si>
-  <si>
-    <t>瀏覽文章</t>
-  </si>
-  <si>
-    <t>新增文章</t>
-  </si>
-  <si>
-    <t>刪除文章</t>
-  </si>
-  <si>
-    <t>修改文章</t>
-  </si>
-  <si>
-    <t>下載文章</t>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_Hans</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览使用者</t>
-  </si>
-  <si>
-    <t>新增使用者</t>
-  </si>
-  <si>
-    <t>删除使用者</t>
-  </si>
-  <si>
-    <t>修改使用者</t>
-  </si>
-  <si>
-    <t>下载使用者</t>
-  </si>
-  <si>
-    <t>浏览角色</t>
-  </si>
-  <si>
-    <t>删除角色</t>
-  </si>
-  <si>
-    <t>下载角色</t>
-  </si>
-  <si>
-    <t>浏览权限</t>
-  </si>
-  <si>
-    <t>新增权限</t>
-  </si>
-  <si>
-    <t>删除权限</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-  </si>
-  <si>
-    <t>下载权限</t>
-  </si>
-  <si>
-    <t>浏览文章</t>
-  </si>
-  <si>
-    <t>删除文章</t>
-  </si>
-  <si>
-    <t>下载文章</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1287,7 +1288,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1313,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1335,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1346,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1357,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1423,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1434,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1445,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1456,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1467,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1478,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1489,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1500,7 +1501,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1511,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1522,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1538,16 +1539,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1582,10 +1583,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1620,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1638,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1656,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1674,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,7 +1695,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1712,7 +1713,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1730,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1748,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1766,10 +1767,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1804,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1822,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1840,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1858,10 +1859,10 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1896,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1914,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1932,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1950,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1970,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1988,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2006,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -2024,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2042,10 +2043,10 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2062,7 +2063,7 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -2080,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -2098,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2116,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2134,10 +2135,10 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2172,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2190,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -2208,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -2226,10 +2227,10 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,7 +2247,7 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2264,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -2282,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -2300,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -2309,7 +2310,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2318,10 +2319,10 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,7 +2339,7 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -2347,7 +2348,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2356,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -2374,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -2383,7 +2384,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2392,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -2410,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,7 +2422,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -2430,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -2448,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -2457,7 +2458,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <v>9</v>
@@ -2466,7 +2467,7 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -2484,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -2493,7 +2494,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>11</v>
@@ -2502,10 +2503,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2522,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -2531,7 +2532,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>13</v>
@@ -2540,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -2558,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -2567,7 +2568,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -2576,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -2594,10 +2595,10 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2605,7 +2606,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -2614,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -2632,7 +2633,7 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -2641,7 +2642,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -2650,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -2668,17 +2669,12 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="F52:F56"/>
     <mergeCell ref="F57:F61"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="F22:F26"/>
@@ -2686,6 +2682,11 @@
     <mergeCell ref="F12:F16"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="F52:F56"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
